--- a/Assignments/Week 3 - ATES/well_dataAXI_Roffa_CITG.xlsx
+++ b/Assignments/Week 3 - ATES/well_dataAXI_Roffa_CITG.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\Studie TUD\Msc\Year 6\Q2 Subsurface storage for energy, water and climate\Week 3 - ATES\Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA2334DF-B57F-4310-AC07-F8590252AD1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{440B9011-D7C3-47C1-A7D3-498ABF4AE395}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="751" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1758,7 +1758,7 @@
   <dimension ref="A1:BH8"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1852,10 +1852,11 @@
         <v>14</v>
       </c>
       <c r="C2" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2" s="6">
-        <v>200000</v>
+        <f>SUM(Wells!G2:G5)</f>
+        <v>400000</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
@@ -1997,7 +1998,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2:F5"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -2066,10 +2067,10 @@
     </row>
     <row r="2" spans="1:16">
       <c r="A2">
-        <v>96776</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>437219</v>
+        <v>0</v>
       </c>
       <c r="C2" s="31">
         <v>0</v>
@@ -2091,12 +2092,12 @@
         <v>0</v>
       </c>
       <c r="I2" s="32">
-        <f>SQRT(G2/PI()/K2/2.8*4.2)</f>
+        <f t="shared" ref="I2:I9" si="0">SQRT(G2/PI()/K2/2.8*4.2)</f>
         <v>45.562419166776799</v>
       </c>
       <c r="J2" s="32">
         <f>Layers!$C$2</f>
-        <v>-45</v>
+        <v>-40</v>
       </c>
       <c r="K2" s="32">
         <v>23</v>
@@ -2119,10 +2120,10 @@
     </row>
     <row r="3" spans="1:16">
       <c r="A3">
-        <v>96840</v>
+        <v>64</v>
       </c>
       <c r="B3">
-        <v>437279</v>
+        <v>60</v>
       </c>
       <c r="C3" s="31">
         <v>0</v>
@@ -2144,12 +2145,12 @@
         <v>0</v>
       </c>
       <c r="I3" s="32">
-        <f>SQRT(G3/PI()/K3/2.8*4.2)</f>
+        <f t="shared" si="0"/>
         <v>45.562419166776799</v>
       </c>
       <c r="J3" s="32">
         <f>Layers!$C$2</f>
-        <v>-45</v>
+        <v>-40</v>
       </c>
       <c r="K3" s="32">
         <v>23</v>
@@ -2164,18 +2165,18 @@
         <v>5</v>
       </c>
       <c r="O3" s="31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P3" s="31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4">
-        <v>96870</v>
+        <v>94</v>
       </c>
       <c r="B4">
-        <v>437196</v>
+        <v>-23</v>
       </c>
       <c r="C4" s="31">
         <v>0</v>
@@ -2197,12 +2198,12 @@
         <v>0</v>
       </c>
       <c r="I4" s="32">
-        <f>SQRT(G4/PI()/K4/2.8*4.2)</f>
+        <f t="shared" si="0"/>
         <v>45.562419166776799</v>
       </c>
       <c r="J4" s="32">
         <f>Layers!$C$2</f>
-        <v>-45</v>
+        <v>-40</v>
       </c>
       <c r="K4" s="32">
         <v>23</v>
@@ -2217,18 +2218,18 @@
         <v>5</v>
       </c>
       <c r="O4" s="31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P4" s="31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5">
-        <v>96927</v>
+        <v>151</v>
       </c>
       <c r="B5">
-        <v>437260</v>
+        <v>41</v>
       </c>
       <c r="C5" s="31">
         <v>0</v>
@@ -2250,12 +2251,12 @@
         <v>0</v>
       </c>
       <c r="I5" s="32">
-        <f>SQRT(G5/PI()/K5/2.8*4.2)</f>
+        <f t="shared" si="0"/>
         <v>45.562419166776799</v>
       </c>
       <c r="J5" s="32">
         <f>Layers!$C$2</f>
-        <v>-45</v>
+        <v>-40</v>
       </c>
       <c r="K5" s="32">
         <v>23</v>
@@ -2270,18 +2271,18 @@
         <v>5</v>
       </c>
       <c r="O5" s="31">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P5" s="31">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="11.25" customHeight="1">
       <c r="A6">
-        <v>96602</v>
+        <v>-174</v>
       </c>
       <c r="B6">
-        <v>437272</v>
+        <v>53</v>
       </c>
       <c r="C6" s="31">
         <v>0</v>
@@ -2302,12 +2303,12 @@
         <v>0</v>
       </c>
       <c r="I6" s="32">
-        <f>SQRT(G6/PI()/K6/2.8*4.2)</f>
+        <f t="shared" si="0"/>
         <v>45.562419166776799</v>
       </c>
       <c r="J6" s="32">
         <f>Layers!$C$2</f>
-        <v>-45</v>
+        <v>-40</v>
       </c>
       <c r="K6" s="32">
         <v>23</v>
@@ -2322,18 +2323,18 @@
         <v>45</v>
       </c>
       <c r="O6" s="31">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P6" s="31">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="11.25" customHeight="1">
       <c r="A7">
-        <v>96588</v>
+        <v>-188</v>
       </c>
       <c r="B7">
-        <v>437350</v>
+        <v>131</v>
       </c>
       <c r="C7" s="31">
         <v>0</v>
@@ -2354,12 +2355,12 @@
         <v>0</v>
       </c>
       <c r="I7" s="32">
-        <f>SQRT(G7/PI()/K7/2.8*4.2)</f>
+        <f t="shared" si="0"/>
         <v>45.562419166776799</v>
       </c>
       <c r="J7" s="32">
         <f>Layers!$C$2</f>
-        <v>-45</v>
+        <v>-40</v>
       </c>
       <c r="K7" s="32">
         <v>23</v>
@@ -2374,18 +2375,18 @@
         <v>45</v>
       </c>
       <c r="O7" s="31">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P7" s="31">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="11.25" customHeight="1">
       <c r="A8">
-        <v>96668</v>
+        <v>-108</v>
       </c>
       <c r="B8">
-        <v>437322</v>
+        <v>103</v>
       </c>
       <c r="C8" s="31">
         <v>0</v>
@@ -2406,12 +2407,12 @@
         <v>0</v>
       </c>
       <c r="I8" s="32">
-        <f>SQRT(G8/PI()/K8/2.8*4.2)</f>
+        <f t="shared" si="0"/>
         <v>45.562419166776799</v>
       </c>
       <c r="J8" s="32">
         <f>Layers!$C$2</f>
-        <v>-45</v>
+        <v>-40</v>
       </c>
       <c r="K8" s="32">
         <v>23</v>
@@ -2426,18 +2427,18 @@
         <v>45</v>
       </c>
       <c r="O8" s="31">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="P8" s="31">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="11.25" customHeight="1">
       <c r="A9">
-        <v>96527</v>
+        <v>-249</v>
       </c>
       <c r="B9">
-        <v>437289</v>
+        <v>70</v>
       </c>
       <c r="C9" s="31">
         <v>0</v>
@@ -2458,12 +2459,12 @@
         <v>0</v>
       </c>
       <c r="I9" s="32">
-        <f>SQRT(G9/PI()/K9/2.8*4.2)</f>
+        <f t="shared" si="0"/>
         <v>45.562419166776799</v>
       </c>
       <c r="J9" s="32">
         <f>Layers!$C$2</f>
-        <v>-45</v>
+        <v>-40</v>
       </c>
       <c r="K9" s="32">
         <v>23</v>
@@ -2478,10 +2479,10 @@
         <v>45</v>
       </c>
       <c r="O9" s="31">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="P9" s="31">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -2492,7 +2493,6 @@
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:16">
-      <c r="D14" s="2"/>
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:16">
@@ -2511,7 +2511,7 @@
   <dimension ref="A1:U12"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
@@ -2556,7 +2556,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>-45</v>
+        <v>-40</v>
       </c>
       <c r="D2">
         <f>0.05*5</f>
@@ -2588,7 +2588,7 @@
       </c>
       <c r="B3">
         <f>C2</f>
-        <v>-45</v>
+        <v>-40</v>
       </c>
       <c r="C3">
         <v>-70</v>
@@ -71366,6 +71366,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100EE1A98F1529AF64BB0B9C14A10EBC3E5" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ba916b834ff1a54dd61e9352c384f890">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="53e8bd78-ea7f-4e15-bf21-16207dd18471" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="543be57ea4f338bf0aa433a1e8645dc5" ns2:_="">
     <xsd:import namespace="53e8bd78-ea7f-4e15-bf21-16207dd18471"/>
@@ -71517,22 +71532,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{520AE030-31CC-49AA-A6DB-4617080757F0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1268EB4A-5B34-469E-AAA9-3E249C8AA1F9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11831D87-BE77-4B52-A1D3-1E48EA568F3B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -71548,21 +71565,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1268EB4A-5B34-469E-AAA9-3E249C8AA1F9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{520AE030-31CC-49AA-A6DB-4617080757F0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>